--- a/va_facility_data_2025-02-20/Bay Shore VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bay%20Shore%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bay Shore VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bay%20Shore%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2efee543da9648c295fcc5c23190967f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R059954fe1c90480e9cfeeddc6c5fdeea"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8b32197fb7104f1991a2789fc0691cbf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf45cf2c2af7d458f84ecd62771814087"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra0bd48ef8b744a4880f669e3fc1afd45"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra87419d2236c4b5ca86e50cbf3b2274a"/>
   </x:sheets>
 </x:workbook>
 </file>
